--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_3_resultat_OV16.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_3_resultat_OV16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CA1AD-F087-4609-9A32-FC01FFDEBBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDE2DD-8132-48DC-9949-82E57C6A95A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -670,9 +670,6 @@
     <t>gn_oncho_oem_3_Resultat_OV16_202206_v2</t>
   </si>
   <si>
-    <t>(Juin 2022) oncho OEM - 3. Formulaire Resultat OV16 V2</t>
-  </si>
-  <si>
     <t>Sous Prefecture</t>
   </si>
   <si>
@@ -851,6 +848,9 @@
   </si>
   <si>
     <t>r_cluster_id</t>
+  </si>
+  <si>
+    <t>(2023 Oct) oncho OEM - 3. Formulaire Resultat OV16 V2</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1590,15 +1590,15 @@
         <v>16</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44" t="s">
@@ -1611,23 +1611,23 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>266</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>267</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>269</v>
-      </c>
       <c r="H7" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="44" t="s">
@@ -2323,10 +2323,10 @@
         <v>60</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="42" t="s">
         <v>58</v>
@@ -2368,10 +2368,10 @@
         <v>60</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>59</v>
@@ -2495,10 +2495,10 @@
         <v>20</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
@@ -2585,10 +2585,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
@@ -2600,10 +2600,10 @@
         <v>20</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
@@ -2615,10 +2615,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
@@ -2630,10 +2630,10 @@
         <v>20</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="34" t="s">
@@ -2645,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
@@ -2675,10 +2675,10 @@
         <v>20</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
@@ -2690,10 +2690,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
@@ -2705,10 +2705,10 @@
         <v>20</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
@@ -2735,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
@@ -2825,10 +2825,10 @@
         <v>20</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
@@ -2885,10 +2885,10 @@
         <v>20</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
@@ -2915,10 +2915,10 @@
         <v>20</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
@@ -2975,10 +2975,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
@@ -3020,10 +3020,10 @@
         <v>20</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
@@ -3035,10 +3035,10 @@
         <v>20</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
@@ -3050,10 +3050,10 @@
         <v>20</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
@@ -3155,10 +3155,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D105" s="34"/>
       <c r="E105" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="D106" s="34"/>
       <c r="E106" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3410,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
@@ -3425,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="34" t="s">
@@ -3545,10 +3545,10 @@
         <v>20</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
@@ -3560,10 +3560,10 @@
         <v>20</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
@@ -3575,10 +3575,10 @@
         <v>20</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
@@ -3605,10 +3605,10 @@
         <v>20</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E128" t="s">
         <v>61</v>
@@ -3619,10 +3619,10 @@
         <v>20</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E129" t="s">
         <v>62</v>
@@ -3633,10 +3633,10 @@
         <v>20</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E130" t="s">
         <v>63</v>
@@ -3647,10 +3647,10 @@
         <v>20</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E131" t="s">
         <v>64</v>
@@ -3661,10 +3661,10 @@
         <v>20</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
         <v>65</v>
@@ -3675,10 +3675,10 @@
         <v>20</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E133" t="s">
         <v>66</v>
@@ -3689,10 +3689,10 @@
         <v>20</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E134" t="s">
         <v>67</v>
@@ -3703,10 +3703,10 @@
         <v>20</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E135" t="s">
         <v>68</v>
@@ -3717,10 +3717,10 @@
         <v>20</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E136" t="s">
         <v>69</v>
@@ -3731,10 +3731,10 @@
         <v>20</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E137" t="s">
         <v>70</v>
@@ -3745,13 +3745,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3759,10 +3759,10 @@
         <v>20</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E139" t="s">
         <v>71</v>
@@ -3773,10 +3773,10 @@
         <v>20</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E140" t="s">
         <v>72</v>
@@ -3787,13 +3787,13 @@
         <v>20</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3801,10 +3801,10 @@
         <v>20</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E142" t="s">
         <v>73</v>
@@ -3815,10 +3815,10 @@
         <v>20</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E143" t="s">
         <v>74</v>
@@ -3829,10 +3829,10 @@
         <v>20</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E144" t="s">
         <v>75</v>
@@ -3843,10 +3843,10 @@
         <v>131</v>
       </c>
       <c r="B146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3854,10 +3854,10 @@
         <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3909,10 +3909,10 @@
         <v>131</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3931,10 +3931,10 @@
         <v>131</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3964,10 +3964,10 @@
         <v>131</v>
       </c>
       <c r="B157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4030,10 +4030,10 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4041,10 +4041,10 @@
         <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4052,10 +4052,10 @@
         <v>131</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4118,10 +4118,10 @@
         <v>131</v>
       </c>
       <c r="B171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4195,10 +4195,10 @@
         <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4206,10 +4206,10 @@
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4261,10 +4261,10 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4272,10 +4272,10 @@
         <v>131</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C185" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4283,10 +4283,10 @@
         <v>131</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4316,10 +4316,10 @@
         <v>131</v>
       </c>
       <c r="B189" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4327,10 +4327,10 @@
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4338,10 +4338,10 @@
         <v>131</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4349,10 +4349,10 @@
         <v>131</v>
       </c>
       <c r="B192" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C192" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4393,10 +4393,10 @@
         <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C196" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4415,10 +4415,10 @@
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C198" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4448,10 +4448,10 @@
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4470,10 +4470,10 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4492,10 +4492,10 @@
         <v>131</v>
       </c>
       <c r="B205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C205" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4503,10 +4503,10 @@
         <v>131</v>
       </c>
       <c r="B206" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C206" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4514,10 +4514,10 @@
         <v>131</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C207" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4525,10 +4525,10 @@
         <v>131</v>
       </c>
       <c r="B208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5866,8 +5866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>211</v>

--- a/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_3_resultat_OV16.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2023/gn_oncho_oem_202310_3_resultat_OV16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Guinea Conakry\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDE2DD-8132-48DC-9949-82E57C6A95A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE6890-232D-4D08-B4C3-32266BA0880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="272">
   <si>
     <t>type</t>
   </si>
@@ -553,9 +553,6 @@
     <t>select_one sub_district_list</t>
   </si>
   <si>
-    <t xml:space="preserve">regex(., '^GNE_[A-Z]{3}_oncho_[0-9]{3}_[0-9]{5}$') </t>
-  </si>
-  <si>
     <t>r_ov16</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>Format du code: GNE_ABC_oncho_nnn_nnnnn où ABC doit-être remplacé par les 3 premières lettres du district en majuscule, nnn par le code du village ou communauté sur 3 chiffres et nnnnn par le numéro d'ordre du participant sur 5 chiffres.</t>
   </si>
   <si>
-    <t>Le format de ce code est incorrect. Exemple de format correct: GNE_ABC_oncho_123_01234</t>
-  </si>
-  <si>
     <t>Format du code: GNE_ABC_oncho_nnn_nnnnn où ABC représente les 3 premières lettres du district en majuscule, nnn: le code du village ou communauté sur 3 chiffres et nnnnn: le numéro d'ordre du participant sur 5 chiffres.</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>Code sur 2 chiffres uniquement</t>
   </si>
   <si>
-    <t>gn_oncho_oem_3_Resultat_OV16_202206_v2</t>
-  </si>
-  <si>
     <t>Sous Prefecture</t>
   </si>
   <si>
@@ -850,7 +841,13 @@
     <t>r_cluster_id</t>
   </si>
   <si>
-    <t>(2023 Oct) oncho OEM - 3. Formulaire Resultat OV16 V2</t>
+    <t>(2023 Oct) oncho OEM - 3. Formulaire Resultat OV16 V3</t>
+  </si>
+  <si>
+    <t>gn_oncho_oem_3_Resultat_OV16_202206_v3</t>
+  </si>
+  <si>
+    <t>Koba</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1492,20 +1489,20 @@
         <v>170</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1520,10 +1517,10 @@
         <v>169</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="5"/>
@@ -1542,10 +1539,10 @@
         <v>172</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="11"/>
@@ -1558,7 +1555,7 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1">
@@ -1566,10 +1563,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="11"/>
@@ -1582,7 +1579,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="31.5">
@@ -1590,15 +1587,15 @@
         <v>16</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44" t="s">
@@ -1606,28 +1603,28 @@
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>267</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>270</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="44" t="s">
@@ -1635,7 +1632,7 @@
       </c>
       <c r="K7" s="44"/>
       <c r="L7" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1">
@@ -1643,10 +1640,10 @@
         <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="11"/>
@@ -1662,13 +1659,13 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C9" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="11"/>
@@ -1687,23 +1684,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>12</v>
@@ -1716,23 +1709,19 @@
         <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>12</v>
@@ -1745,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
@@ -1766,10 +1755,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
@@ -1786,7 +1775,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1804,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1828,8 +1817,8 @@
   <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1948,24 +1937,24 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2323,10 +2312,10 @@
         <v>60</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D42" s="42" t="s">
         <v>58</v>
@@ -2368,10 +2357,10 @@
         <v>60</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>59</v>
@@ -2409,36 +2398,36 @@
       <c r="E47" s="34"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="A48" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="E48" s="34"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="A49" s="41"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
-        <v>61</v>
-      </c>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
@@ -2450,10 +2439,10 @@
         <v>20</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
@@ -2465,10 +2454,10 @@
         <v>20</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
@@ -2480,10 +2469,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
@@ -2495,14 +2484,14 @@
         <v>20</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2510,10 +2499,10 @@
         <v>20</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
@@ -2525,10 +2514,10 @@
         <v>20</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
@@ -2540,10 +2529,10 @@
         <v>20</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
@@ -2555,10 +2544,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
@@ -2570,14 +2559,14 @@
         <v>20</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2585,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
@@ -2600,10 +2589,10 @@
         <v>20</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
@@ -2615,10 +2604,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
@@ -2630,10 +2619,10 @@
         <v>20</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="34" t="s">
@@ -2645,10 +2634,10 @@
         <v>20</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
@@ -2660,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
@@ -2675,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
@@ -2690,10 +2679,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
@@ -2705,14 +2694,14 @@
         <v>20</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2720,10 +2709,10 @@
         <v>20</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
@@ -2735,10 +2724,10 @@
         <v>20</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
@@ -2750,10 +2739,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
@@ -2765,10 +2754,10 @@
         <v>20</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
@@ -2780,14 +2769,14 @@
         <v>20</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2795,10 +2784,10 @@
         <v>20</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
@@ -2810,10 +2799,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
@@ -2825,10 +2814,10 @@
         <v>20</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
@@ -2840,14 +2829,14 @@
         <v>20</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2855,10 +2844,10 @@
         <v>20</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
@@ -2870,10 +2859,10 @@
         <v>20</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
@@ -2885,10 +2874,10 @@
         <v>20</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
@@ -2900,10 +2889,10 @@
         <v>20</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
@@ -2915,14 +2904,14 @@
         <v>20</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2930,10 +2919,10 @@
         <v>20</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
@@ -2945,10 +2934,10 @@
         <v>20</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
@@ -2960,10 +2949,10 @@
         <v>20</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
@@ -2975,10 +2964,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
@@ -2990,10 +2979,10 @@
         <v>20</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="D87" s="34"/>
       <c r="E87" s="34" t="s">
@@ -3005,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
@@ -3020,10 +3009,10 @@
         <v>20</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
@@ -3035,14 +3024,14 @@
         <v>20</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3050,10 +3039,10 @@
         <v>20</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
@@ -3065,14 +3054,14 @@
         <v>20</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3080,10 +3069,10 @@
         <v>20</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
@@ -3095,14 +3084,14 @@
         <v>20</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3110,10 +3099,10 @@
         <v>20</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
@@ -3125,10 +3114,10 @@
         <v>20</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
@@ -3140,10 +3129,10 @@
         <v>20</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
@@ -3155,10 +3144,10 @@
         <v>20</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
@@ -3170,10 +3159,10 @@
         <v>20</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
@@ -3185,14 +3174,14 @@
         <v>20</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3200,14 +3189,14 @@
         <v>20</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3215,14 +3204,14 @@
         <v>20</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3230,14 +3219,14 @@
         <v>20</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3245,14 +3234,14 @@
         <v>20</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3260,14 +3249,14 @@
         <v>20</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D105" s="34"/>
       <c r="E105" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3275,14 +3264,14 @@
         <v>20</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D106" s="34"/>
       <c r="E106" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3290,14 +3279,14 @@
         <v>20</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D107" s="34"/>
       <c r="E107" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3305,14 +3294,14 @@
         <v>20</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D108" s="34"/>
       <c r="E108" s="34" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3320,10 +3309,10 @@
         <v>20</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D109" s="34"/>
       <c r="E109" s="34" t="s">
@@ -3335,10 +3324,10 @@
         <v>20</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="34" t="s">
@@ -3350,14 +3339,14 @@
         <v>20</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D111" s="34"/>
       <c r="E111" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3365,10 +3354,10 @@
         <v>20</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="34" t="s">
@@ -3380,10 +3369,10 @@
         <v>20</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="34" t="s">
@@ -3395,10 +3384,10 @@
         <v>20</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
@@ -3410,10 +3399,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
@@ -3425,10 +3414,10 @@
         <v>20</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
@@ -3440,10 +3429,10 @@
         <v>20</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
@@ -3455,14 +3444,14 @@
         <v>20</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3470,14 +3459,14 @@
         <v>20</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3485,10 +3474,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
@@ -3500,14 +3489,14 @@
         <v>20</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3515,10 +3504,10 @@
         <v>20</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="34" t="s">
@@ -3530,14 +3519,14 @@
         <v>20</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3545,10 +3534,10 @@
         <v>20</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
@@ -3560,10 +3549,10 @@
         <v>20</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
@@ -3575,10 +3564,10 @@
         <v>20</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
@@ -3590,10 +3579,10 @@
         <v>20</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="34" t="s">
@@ -3605,13 +3594,13 @@
         <v>20</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3619,13 +3608,13 @@
         <v>20</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3633,13 +3622,13 @@
         <v>20</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3647,13 +3636,13 @@
         <v>20</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3661,13 +3650,13 @@
         <v>20</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3675,13 +3664,13 @@
         <v>20</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3689,13 +3678,13 @@
         <v>20</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3703,13 +3692,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3717,13 +3706,13 @@
         <v>20</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3731,13 +3720,13 @@
         <v>20</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3745,13 +3734,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E138" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3759,13 +3748,13 @@
         <v>20</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3773,13 +3762,13 @@
         <v>20</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3787,13 +3776,13 @@
         <v>20</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E141" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3801,13 +3790,13 @@
         <v>20</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E142" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3815,13 +3804,13 @@
         <v>20</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3829,178 +3818,187 @@
         <v>20</v>
       </c>
       <c r="B144" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E144" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>234</v>
+      </c>
+      <c r="C145" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>234</v>
+      </c>
+      <c r="C146" t="s">
+        <v>234</v>
+      </c>
+      <c r="E146" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" t="s">
         <v>237</v>
       </c>
-      <c r="C144" s="43" t="s">
+      <c r="C154" t="s">
         <v>237</v>
       </c>
-      <c r="E144" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" t="s">
         <v>238</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C156" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" t="s">
         <v>239</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C159" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B148" t="s">
-        <v>132</v>
-      </c>
-      <c r="C148" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B149" t="s">
-        <v>133</v>
-      </c>
-      <c r="C149" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" t="s">
-        <v>134</v>
-      </c>
-      <c r="C150" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B151" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B152" t="s">
-        <v>240</v>
-      </c>
-      <c r="C152" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B153" t="s">
-        <v>136</v>
-      </c>
-      <c r="C153" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B154" t="s">
-        <v>241</v>
-      </c>
-      <c r="C154" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B156" t="s">
-        <v>138</v>
-      </c>
-      <c r="C156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B157" t="s">
-        <v>242</v>
-      </c>
-      <c r="C157" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="160" spans="1:5">
+      <c r="A160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" t="s">
         <v>139</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" t="s">
-        <v>140</v>
-      </c>
-      <c r="C159" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B160" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4008,10 +4006,10 @@
         <v>131</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C161" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4019,10 +4017,10 @@
         <v>131</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4030,10 +4028,10 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4041,10 +4039,10 @@
         <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4052,10 +4050,10 @@
         <v>131</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C165" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4063,10 +4061,10 @@
         <v>131</v>
       </c>
       <c r="B166" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4074,10 +4072,10 @@
         <v>131</v>
       </c>
       <c r="B167" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="C167" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4085,10 +4083,10 @@
         <v>131</v>
       </c>
       <c r="B168" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C168" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4096,10 +4094,10 @@
         <v>131</v>
       </c>
       <c r="B169" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C169" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4107,10 +4105,10 @@
         <v>131</v>
       </c>
       <c r="B170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4118,10 +4116,10 @@
         <v>131</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4129,10 +4127,10 @@
         <v>131</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4140,10 +4138,10 @@
         <v>131</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="C173" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4151,10 +4149,10 @@
         <v>131</v>
       </c>
       <c r="B174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C174" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4162,10 +4160,10 @@
         <v>131</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C175" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4173,10 +4171,10 @@
         <v>131</v>
       </c>
       <c r="B176" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C176" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4184,10 +4182,10 @@
         <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4195,10 +4193,10 @@
         <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4206,10 +4204,10 @@
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C179" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4217,10 +4215,10 @@
         <v>131</v>
       </c>
       <c r="B180" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="C180" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4228,10 +4226,10 @@
         <v>131</v>
       </c>
       <c r="B181" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4239,10 +4237,10 @@
         <v>131</v>
       </c>
       <c r="B182" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C182" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4250,10 +4248,10 @@
         <v>131</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C183" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4261,10 +4259,10 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C184" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4272,10 +4270,10 @@
         <v>131</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4283,10 +4281,10 @@
         <v>131</v>
       </c>
       <c r="B186" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4294,10 +4292,10 @@
         <v>131</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="C187" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4305,10 +4303,10 @@
         <v>131</v>
       </c>
       <c r="B188" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4316,10 +4314,10 @@
         <v>131</v>
       </c>
       <c r="B189" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4327,10 +4325,10 @@
         <v>131</v>
       </c>
       <c r="B190" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="C190" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4338,10 +4336,10 @@
         <v>131</v>
       </c>
       <c r="B191" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C191" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4349,10 +4347,10 @@
         <v>131</v>
       </c>
       <c r="B192" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C192" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4360,10 +4358,10 @@
         <v>131</v>
       </c>
       <c r="B193" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C193" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4371,10 +4369,10 @@
         <v>131</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="C194" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4382,10 +4380,10 @@
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4393,10 +4391,10 @@
         <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4404,10 +4402,10 @@
         <v>131</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4415,10 +4413,10 @@
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C198" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4426,10 +4424,10 @@
         <v>131</v>
       </c>
       <c r="B199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4437,10 +4435,10 @@
         <v>131</v>
       </c>
       <c r="B200" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="C200" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4448,10 +4446,10 @@
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="C201" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4459,10 +4457,10 @@
         <v>131</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4470,10 +4468,10 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C203" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4481,10 +4479,10 @@
         <v>131</v>
       </c>
       <c r="B204" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C204" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4492,10 +4490,10 @@
         <v>131</v>
       </c>
       <c r="B205" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C205" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4503,10 +4501,10 @@
         <v>131</v>
       </c>
       <c r="B206" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="C206" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4514,10 +4512,10 @@
         <v>131</v>
       </c>
       <c r="B207" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C207" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4525,24 +4523,36 @@
         <v>131</v>
       </c>
       <c r="B208" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C208" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
+      <c r="A209" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
       <c r="F209" s="13"/>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
+      <c r="A210" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="13"/>
@@ -5866,8 +5876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5892,10 +5902,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
